--- a/03_Übung1/04_Aufgabe2/VergleichDecHex1-3.xlsx
+++ b/03_Übung1/04_Aufgabe2/VergleichDecHex1-3.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nicsi\Documents\GitHub\DSV2Lab\Uebung1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nicsi\Documents\GitHub\DSV2Lab\03_Übung1\04_Aufgabe2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,42 +24,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
-  <si>
-    <t>0026d533</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>00d2d300</t>
   </si>
   <si>
-    <t>00108f0</t>
-  </si>
-  <si>
     <t>0038d700</t>
   </si>
   <si>
-    <t>00145217</t>
-  </si>
-  <si>
     <t>0047d600</t>
   </si>
   <si>
-    <t>007fdd14</t>
-  </si>
-  <si>
     <t>00e4d300</t>
   </si>
   <si>
-    <t>hex l</t>
-  </si>
-  <si>
-    <t>dec l</t>
-  </si>
-  <si>
     <t>hex r</t>
   </si>
   <si>
     <t>dec r</t>
+  </si>
+  <si>
+    <t>iADC2R</t>
   </si>
 </sst>
 </file>
@@ -95,9 +80,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -378,85 +366,76 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" t="s">
-        <v>11</v>
-      </c>
+      <c r="A1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>869606912</v>
-      </c>
-      <c r="C2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>13881856</v>
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>-267904512</v>
-      </c>
-      <c r="C3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1">
+        <v>13881856</v>
+      </c>
+      <c r="D3" s="1"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1">
         <v>14104576</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4">
-        <v>391255040</v>
-      </c>
-      <c r="C4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4">
-        <v>14042880</v>
-      </c>
+      <c r="D4" s="1"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5">
-        <v>350060288</v>
-      </c>
-      <c r="C5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="B5" s="1">
+        <v>14042880</v>
+      </c>
+      <c r="D5" s="1"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1">
         <v>13886464</v>
       </c>
+      <c r="D6" s="1"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
